--- a/medicine/Enfance/Albertine_Deletaille/Albertine_Deletaille.xlsx
+++ b/medicine/Enfance/Albertine_Deletaille/Albertine_Deletaille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albertine Deletaille, née Roelofs à La Haye aux Pays-Bas le 9 février 1902 et morte à Callian (Var) le 2 février 2008[1], est une illustratrice et auteure de livres jeunesse française. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albertine Deletaille, née Roelofs à La Haye aux Pays-Bas le 9 février 1902 et morte à Callian (Var) le 2 février 2008, est une illustratrice et auteure de livres jeunesse française. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albertine Deletaille naît dans un milieu de peintres, elle étudie les beaux-arts avant de se marier et de mettre au monde cinq enfants. Ce n'est qu'à l'âge de cinquante ans, une fois ses enfants élevés, qu'elle s'oriente vers l'illustration. Après avoir publié ses premiers albums, elle s'adresse à Paul Faucher, le Père Castor.
 Elle rencontrera le succès avec ses premiers albums au Père Castor, et ne cessera d'y produire des albums dont certains sont devenus des classiques de la littérature jeunesse.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Petite Étoile (conte de Marie Gevers, Bruxelles, 1941)
 La Noël du petit Joseph (conte de Marie Gevers, 1941(?)), Editions des Artistes - A.N°4354
@@ -618,9 +634,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1958 : (international) « Honor List »[2], de l' IBBY, pour Cachés dans la forêt</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1958 : (international) « Honor List », de l' IBBY, pour Cachés dans la forêt</t>
         </is>
       </c>
     </row>
